--- a/Details for prototype.xlsx
+++ b/Details for prototype.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBS Intuit" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,9 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'DBS Intuit'!$E$2:$K$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Internal Job Postings'!$B$2:$D$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'DBS Intuit'!$E$2:$K$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'DBS Intuit'!$E$2:$K$2</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Internal Job Postings'!$B$2:$D$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Internal Job Postings'!$B$2:$D$2</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="150">
   <si>
     <t xml:space="preserve">Details</t>
   </si>
@@ -74,6 +76,9 @@
     <t xml:space="preserve">anishg@dbs.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Senior Associate</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCMHRD</t>
   </si>
   <si>
@@ -95,6 +100,9 @@
     <t xml:space="preserve">parthkhare@dbs.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Analyst</t>
+  </si>
+  <si>
     <t xml:space="preserve">TISS</t>
   </si>
   <si>
@@ -113,6 +121,9 @@
     <t xml:space="preserve">raagavin@dbs.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Associate</t>
+  </si>
+  <si>
     <t xml:space="preserve">XLRI</t>
   </si>
   <si>
@@ -131,6 +142,9 @@
     <t xml:space="preserve">harshitkatiyar@dbs.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Senior Officer</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIFT K</t>
   </si>
   <si>
@@ -149,6 +163,9 @@
     <t xml:space="preserve">monikasingh@dbs.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Officer</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIM B</t>
   </si>
   <si>
@@ -422,15 +439,9 @@
     <t xml:space="preserve">Location</t>
   </si>
   <si>
-    <t xml:space="preserve">Senior Associate</t>
-  </si>
-  <si>
     <t xml:space="preserve">CBG</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyst</t>
-  </si>
-  <si>
     <t xml:space="preserve">T&amp;O</t>
   </si>
   <si>
@@ -440,22 +451,13 @@
     <t xml:space="preserve">This is the list of the vacancies we have in the organization. So when the candidate enters his current position, he will get the details of the vacancies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Associate</t>
-  </si>
-  <si>
     <t xml:space="preserve">IBG</t>
   </si>
   <si>
-    <t xml:space="preserve">Senior Officer</t>
-  </si>
-  <si>
     <t xml:space="preserve">GSMC</t>
   </si>
   <si>
     <t xml:space="preserve">So a person with current position of officer will get the vacancies of only officer in other vertical or senior officer in the same domain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Officer</t>
   </si>
   <si>
     <t xml:space="preserve">RMG</t>
@@ -599,7 +601,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -610,10 +612,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -636,6 +634,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -654,10 +656,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -755,26 +753,26 @@
   </sheetPr>
   <dimension ref="1:26"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2793522267206"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.5668016194332"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.1336032388664"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1417004048583"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="29.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="43.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.7125506072874"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="30.9919028340081"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.2793522267206"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,835 +792,880 @@
       <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="7" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+    </row>
+    <row r="2" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="9" t="n">
         <f aca="false">2015-3</f>
         <v>2012</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H4" s="9" t="n">
         <v>2014</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="F5" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9" t="n">
         <v>2013</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="7" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
-        <v>34</v>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="F6" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H6" s="9" t="n">
         <v>2008</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>40</v>
+      <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H7" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8" t="s">
-        <v>47</v>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="9" t="n">
         <v>2013</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H8" s="9" t="n">
         <v>2010</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8" t="s">
-        <v>53</v>
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F9" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H9" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8" t="s">
-        <v>59</v>
+      <c r="E10" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F10" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H10" s="9" t="n">
         <v>2013</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8" t="s">
-        <v>53</v>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="F11" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H11" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="9" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>60</v>
       </c>
       <c r="H12" s="9" t="n">
         <v>2014</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="n">
+      <c r="A13" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>72</v>
+      <c r="B13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F13" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H13" s="9" t="n">
         <v>2012</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>76</v>
+      <c r="B14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F14" s="9" t="n">
         <v>2014</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H14" s="9" t="n">
         <v>2013</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
-        <v>47</v>
+      <c r="B15" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F15" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="n">
         <v>2014</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>83</v>
+      <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F16" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H16" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>15</v>
+      <c r="B17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F17" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H17" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="I17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="9" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="H18" s="9" t="n">
         <v>2017</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="7" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>59</v>
+      <c r="B19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="F19" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H19" s="9" t="n">
         <v>2011</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>76</v>
+      <c r="B20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F20" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H20" s="9" t="n">
         <v>2013</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>76</v>
+      <c r="B21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F21" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H21" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>72</v>
+      <c r="B22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F22" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H22" s="9" t="n">
         <v>2015</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="n">
+      <c r="A23" s="7" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>47</v>
+      <c r="B23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F23" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H23" s="9" t="n">
         <v>2011</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="J23" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="F24" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>2016</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="H24" s="9" t="n">
-        <v>2016</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="n">
+      <c r="A25" s="7" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8" t="s">
-        <v>72</v>
+      <c r="B25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F25" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H25" s="9" t="n">
         <v>2010</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="7" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8" t="s">
-        <v>76</v>
+      <c r="B26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="F26" s="9" t="n">
         <v>2016</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H26" s="9" t="n">
         <v>2009</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1675,17 +1718,17 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="124.259109311741"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="129.971659919028"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,103 +1744,102 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>115</v>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>136</v>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>85</v>
+      <c r="B5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>141</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>110</v>
+      <c r="D7" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="B8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1805,13 +1847,13 @@
       <c r="A9" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1819,13 +1861,13 @@
       <c r="A10" s="13" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -1833,69 +1875,69 @@
       <c r="A11" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>110</v>
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>30</v>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>85</v>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1903,13 +1945,13 @@
       <c r="A16" s="13" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1917,13 +1959,13 @@
       <c r="A17" s="13" t="n">
         <v>15</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1931,13 +1973,13 @@
       <c r="A18" s="13" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>149</v>
       </c>
     </row>
@@ -1945,13 +1987,13 @@
       <c r="A19" s="13" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1959,55 +2001,55 @@
       <c r="A20" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="14" t="s">
+      <c r="B20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="14" t="s">
-        <v>30</v>
+      <c r="D20" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="14" t="s">
-        <v>17</v>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="13" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>85</v>
+      <c r="B22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="13" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2015,13 +2057,13 @@
       <c r="A24" s="13" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="8" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2029,28 +2071,28 @@
       <c r="A25" s="13" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>85</v>
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>30</v>
+      <c r="B26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
